--- a/Root_PFAS.xlsx
+++ b/Root_PFAS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythonProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythonProject\streamlit_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D2B55A-E4A6-4941-8A2E-B255BB5643DF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DDA1DC-FC74-4D24-88D2-56675C6BFCFC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="351">
   <si>
     <t>FNSA-1</t>
   </si>
@@ -112,9 +112,6 @@
     <t>C6HF11O2</t>
   </si>
   <si>
-    <t>PFHxA</t>
-  </si>
-  <si>
     <t>C(=O)(C(C(C(C(C(F)(F)F)(F)F)(F)F)(F)F)(F)F)O</t>
   </si>
   <si>
@@ -1064,6 +1061,41 @@
   <si>
     <t>C(=O)(C(C(C(C(C(C(F)(F)F)(F)F)(F)F)(F)F)(F)F)(F)F)O</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PFHxA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PFOA</t>
+  </si>
+  <si>
+    <t>C4HF7O2</t>
+  </si>
+  <si>
+    <t>PFBA</t>
+  </si>
+  <si>
+    <t>C(=O)(C(C(C(F)(F)F)(F)F)(F)F)O</t>
+  </si>
+  <si>
+    <t>C(=O)(C(C(C(C(C(C(C(F)(F)F)(F)F)(F)F)(F)F)(F)F)(F)F)(F)F)O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4HF9O3S</t>
+  </si>
+  <si>
+    <t>PFBS</t>
+  </si>
+  <si>
+    <t>C(C(C(F)(F)S(=O)(=O)O)(F)F)(C(F)(F)F)(F)F</t>
+  </si>
+  <si>
+    <t>PFOS</t>
+  </si>
+  <si>
+    <t>C(C(C(C(C(F)(F)S(=O)(=O)O)(F)F)(F)F)(F)F)(C(C(C(F)(F)F)(F)F)(F)F)(F)F</t>
   </si>
 </sst>
 </file>
@@ -1445,10 +1477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5CC22C-F1C8-4218-8E33-AF33410B2094}">
-  <dimension ref="A1:V113"/>
+  <dimension ref="A1:V117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1467,31 +1499,31 @@
         <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>0</v>
@@ -1730,13 +1762,13 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>340</v>
       </c>
       <c r="D5">
         <v>37.299999999999997</v>
@@ -1798,13 +1830,13 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="D6">
         <v>37.299999999999997</v>
@@ -1866,13 +1898,13 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D7">
         <v>37.299999999999997</v>
@@ -1934,13 +1966,13 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8">
         <v>37.299999999999997</v>
@@ -2002,13 +2034,13 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="D9">
         <v>37.299999999999997</v>
@@ -2070,13 +2102,13 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10">
         <v>37.299999999999997</v>
@@ -2138,13 +2170,13 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="D11">
         <v>17.07</v>
@@ -2206,13 +2238,13 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12">
         <v>37.299999999999997</v>
@@ -2274,13 +2306,13 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13">
         <v>37.299999999999997</v>
@@ -2342,13 +2374,13 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14">
         <v>37.299999999999997</v>
@@ -2410,13 +2442,13 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="D15">
         <v>46.53</v>
@@ -2478,13 +2510,13 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2546,13 +2578,13 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2614,13 +2646,13 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="D18">
         <v>46.53</v>
@@ -2682,13 +2714,13 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="D19">
         <v>100.9</v>
@@ -2750,13 +2782,13 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20">
         <v>46.53</v>
@@ -2818,13 +2850,13 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="D21">
         <v>46.53</v>
@@ -2886,13 +2918,13 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="D22">
         <v>55.76</v>
@@ -2954,13 +2986,13 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="D23">
         <v>80.67</v>
@@ -3022,13 +3054,13 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="D24">
         <v>21.76</v>
@@ -3090,13 +3122,13 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="D25">
         <v>9.23</v>
@@ -3158,13 +3190,13 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="D26">
         <v>37.299999999999997</v>
@@ -3226,13 +3258,13 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="D27">
         <v>37.299999999999997</v>
@@ -3294,13 +3326,13 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="D28">
         <v>57.53</v>
@@ -3362,13 +3394,13 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="D29">
         <v>57.53</v>
@@ -3430,13 +3462,13 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="D30">
         <v>57.53</v>
@@ -3498,13 +3530,13 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="D31">
         <v>57.53</v>
@@ -3566,13 +3598,13 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="D32">
         <v>57.53</v>
@@ -3634,13 +3666,13 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="D33">
         <v>91.75</v>
@@ -3702,13 +3734,13 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="D34">
         <v>34.14</v>
@@ -3770,13 +3802,13 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="D35">
         <v>34.14</v>
@@ -3838,13 +3870,13 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="D36">
         <v>57.61</v>
@@ -3906,13 +3938,13 @@
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="D37">
         <v>54.37</v>
@@ -3974,13 +4006,13 @@
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="D38">
         <v>54.37</v>
@@ -4042,13 +4074,13 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39">
         <v>54.37</v>
@@ -4110,13 +4142,13 @@
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40">
         <v>54.37</v>
@@ -4178,13 +4210,13 @@
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41">
         <v>54.37</v>
@@ -4246,13 +4278,13 @@
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42">
         <v>54.37</v>
@@ -4314,13 +4346,13 @@
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="D43">
         <v>54.37</v>
@@ -4382,13 +4414,13 @@
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="D44">
         <v>37.299999999999997</v>
@@ -4450,13 +4482,13 @@
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -4518,13 +4550,13 @@
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -4586,13 +4618,13 @@
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="D47">
         <v>17.07</v>
@@ -4654,13 +4686,13 @@
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48">
         <v>17.07</v>
@@ -4722,13 +4754,13 @@
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="D49">
         <v>37.299999999999997</v>
@@ -4790,13 +4822,13 @@
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50">
         <v>37.299999999999997</v>
@@ -4858,13 +4890,13 @@
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="D51">
         <v>74.599999999999994</v>
@@ -4926,13 +4958,13 @@
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="D52">
         <v>17.07</v>
@@ -4994,13 +5026,13 @@
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -5062,13 +5094,13 @@
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -5130,13 +5162,13 @@
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="D55">
         <v>37.299999999999997</v>
@@ -5198,13 +5230,13 @@
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="D56">
         <v>12.53</v>
@@ -5266,13 +5298,13 @@
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="D57">
         <v>20.23</v>
@@ -5334,13 +5366,13 @@
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="D58">
         <v>57.53</v>
@@ -5402,13 +5434,13 @@
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -5470,13 +5502,13 @@
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="D60">
         <v>9.23</v>
@@ -5538,13 +5570,13 @@
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="D61">
         <v>20.23</v>
@@ -5606,13 +5638,13 @@
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="D62">
         <v>37.299999999999997</v>
@@ -5674,13 +5706,13 @@
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63">
         <v>9.23</v>
@@ -5742,13 +5774,13 @@
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="D64">
         <v>74.599999999999994</v>
@@ -5810,13 +5842,13 @@
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="D65">
         <v>26.3</v>
@@ -5878,13 +5910,13 @@
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="D66">
         <v>17.07</v>
@@ -5946,13 +5978,13 @@
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -6014,13 +6046,13 @@
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="D68">
         <v>26.3</v>
@@ -6082,13 +6114,13 @@
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="D69">
         <v>26.3</v>
@@ -6150,13 +6182,13 @@
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="D70">
         <v>20.23</v>
@@ -6218,13 +6250,13 @@
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="D71">
         <v>29.46</v>
@@ -6286,13 +6318,13 @@
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>214</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -6354,13 +6386,13 @@
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="D73">
         <v>17.07</v>
@@ -6422,13 +6454,13 @@
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D74">
         <v>17.07</v>
@@ -6490,13 +6522,13 @@
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="D75">
         <v>37.299999999999997</v>
@@ -6558,13 +6590,13 @@
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D76">
         <v>37.299999999999997</v>
@@ -6626,13 +6658,13 @@
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D77">
         <v>37.299999999999997</v>
@@ -6694,13 +6726,13 @@
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="D78">
         <v>43.37</v>
@@ -6762,13 +6794,13 @@
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="D79">
         <v>63.6</v>
@@ -6830,13 +6862,13 @@
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D80">
         <v>63.6</v>
@@ -6898,13 +6930,13 @@
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -6966,13 +6998,13 @@
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -7034,13 +7066,13 @@
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -7102,13 +7134,13 @@
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="D84">
         <v>20.23</v>
@@ -7170,13 +7202,13 @@
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -7238,13 +7270,13 @@
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="D86">
         <v>12.53</v>
@@ -7306,13 +7338,13 @@
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="D87">
         <v>20.23</v>
@@ -7374,13 +7406,13 @@
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="D88">
         <v>40.46</v>
@@ -7442,13 +7474,13 @@
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="D89">
         <v>37.299999999999997</v>
@@ -7510,13 +7542,13 @@
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="D90">
         <v>17.07</v>
@@ -7578,13 +7610,13 @@
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -7646,13 +7678,13 @@
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>269</v>
       </c>
       <c r="D92">
         <v>20.23</v>
@@ -7714,13 +7746,13 @@
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="D93">
         <v>20.23</v>
@@ -7782,13 +7814,13 @@
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>275</v>
       </c>
       <c r="D94">
         <v>37.299999999999997</v>
@@ -7850,13 +7882,13 @@
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D95">
         <v>20.23</v>
@@ -7918,13 +7950,13 @@
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -7986,13 +8018,13 @@
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -8054,13 +8086,13 @@
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="D98">
         <v>20.23</v>
@@ -8122,13 +8154,13 @@
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>289</v>
       </c>
       <c r="D99">
         <v>12.53</v>
@@ -8190,13 +8222,13 @@
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>292</v>
       </c>
       <c r="D100">
         <v>17.07</v>
@@ -8258,13 +8290,13 @@
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>295</v>
       </c>
       <c r="D101">
         <v>38.92</v>
@@ -8326,13 +8358,13 @@
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D102">
         <v>38.92</v>
@@ -8394,13 +8426,13 @@
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>300</v>
       </c>
       <c r="D103">
         <v>65.83</v>
@@ -8462,13 +8494,13 @@
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>303</v>
       </c>
       <c r="D104">
         <v>43.37</v>
@@ -8530,13 +8562,13 @@
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C105" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>306</v>
       </c>
       <c r="D105">
         <v>80.31</v>
@@ -8598,13 +8630,13 @@
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C106" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>309</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -8666,13 +8698,13 @@
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -8734,13 +8766,13 @@
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>313</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>314</v>
       </c>
       <c r="D108">
         <v>12.53</v>
@@ -8802,13 +8834,13 @@
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>317</v>
       </c>
       <c r="D109">
         <v>54.37</v>
@@ -8870,13 +8902,13 @@
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C110" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>320</v>
       </c>
       <c r="D110">
         <v>20.23</v>
@@ -8938,13 +8970,13 @@
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="D111">
         <v>46.53</v>
@@ -9006,13 +9038,13 @@
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="D112">
         <v>3.24</v>
@@ -9074,13 +9106,13 @@
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>329</v>
       </c>
       <c r="D113">
         <v>33.020000000000003</v>
@@ -9137,6 +9169,278 @@
         <v>27.828125</v>
       </c>
       <c r="V113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>345</v>
+      </c>
+      <c r="B114" t="s">
+        <v>30</v>
+      </c>
+      <c r="C114" t="s">
+        <v>341</v>
+      </c>
+      <c r="D114">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="E114">
+        <v>4.4450000000000003</v>
+      </c>
+      <c r="F114">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="G114">
+        <v>5.5251999999999999</v>
+      </c>
+      <c r="H114">
+        <v>0.53969999999999996</v>
+      </c>
+      <c r="I114">
+        <v>0.53839999999999999</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>238.47749887020501</v>
+      </c>
+      <c r="M114">
+        <v>0.88660000000000005</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="P114">
+        <v>28.961300000000001</v>
+      </c>
+      <c r="Q114">
+        <v>4.0174124753451803</v>
+      </c>
+      <c r="R114">
+        <v>-5.6305384885002802E-4</v>
+      </c>
+      <c r="S114">
+        <v>0</v>
+      </c>
+      <c r="T114">
+        <v>-16.865336709401799</v>
+      </c>
+      <c r="U114">
+        <v>20.053894927536199</v>
+      </c>
+      <c r="V114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>344</v>
+      </c>
+      <c r="B115" t="s">
+        <v>342</v>
+      </c>
+      <c r="C115" t="s">
+        <v>343</v>
+      </c>
+      <c r="D115">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="E115">
+        <v>1.9039999999999999</v>
+      </c>
+      <c r="F115">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="G115">
+        <v>2.3693</v>
+      </c>
+      <c r="H115">
+        <v>0.51939999999999997</v>
+      </c>
+      <c r="I115">
+        <v>0.42849999999999999</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>0.81810000000000005</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="P115">
+        <v>25.3216</v>
+      </c>
+      <c r="Q115">
+        <v>12.673150510204</v>
+      </c>
+      <c r="R115">
+        <v>2.7017196235818001E-2</v>
+      </c>
+      <c r="S115">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="T115">
+        <v>48.988135728567201</v>
+      </c>
+      <c r="U115">
+        <v>22.737689393939299</v>
+      </c>
+      <c r="V115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>348</v>
+      </c>
+      <c r="B116" t="s">
+        <v>346</v>
+      </c>
+      <c r="C116" t="s">
+        <v>347</v>
+      </c>
+      <c r="D116">
+        <v>54.37</v>
+      </c>
+      <c r="E116">
+        <v>3.3809999999999998</v>
+      </c>
+      <c r="F116">
+        <v>1.117</v>
+      </c>
+      <c r="G116">
+        <v>3.1642999999999999</v>
+      </c>
+      <c r="H116">
+        <v>0.54290000000000005</v>
+      </c>
+      <c r="I116">
+        <v>0.44169999999999998</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>0.83479999999999999</v>
+      </c>
+      <c r="N116">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
+      <c r="P116">
+        <v>30.5121</v>
+      </c>
+      <c r="Q116">
+        <v>-1.21474352867955</v>
+      </c>
+      <c r="R116">
+        <v>-5.8348769359496802E-2</v>
+      </c>
+      <c r="S116">
+        <v>-0.04</v>
+      </c>
+      <c r="T116">
+        <v>0.34116008556897198</v>
+      </c>
+      <c r="U116">
+        <v>21.969011350059699</v>
+      </c>
+      <c r="V116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>350</v>
+      </c>
+      <c r="B117" t="s">
+        <v>115</v>
+      </c>
+      <c r="C117" t="s">
+        <v>349</v>
+      </c>
+      <c r="D117">
+        <v>54.37</v>
+      </c>
+      <c r="E117">
+        <v>5.9219999999999997</v>
+      </c>
+      <c r="F117">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="G117">
+        <v>7.2401999999999997</v>
+      </c>
+      <c r="H117">
+        <v>0.54659999999999997</v>
+      </c>
+      <c r="I117">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>233.49042550858999</v>
+      </c>
+      <c r="M117">
+        <v>0.85260000000000002</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+      <c r="P117">
+        <v>51.390300000000003</v>
+      </c>
+      <c r="Q117">
+        <v>3.6760256630087</v>
+      </c>
+      <c r="R117">
+        <v>1.9089778267053E-3</v>
+      </c>
+      <c r="S117">
+        <v>0</v>
+      </c>
+      <c r="T117">
+        <v>-8.9805844080192205</v>
+      </c>
+      <c r="U117">
+        <v>20.059806397306399</v>
+      </c>
+      <c r="V117">
         <v>0</v>
       </c>
     </row>
